--- a/plots/countries/plot data/Bulgaria.xlsx
+++ b/plots/countries/plot data/Bulgaria.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>12.3620361867611</v>
+        <v>12.3488716642889</v>
       </c>
     </row>
     <row r="3">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>6.37062586909957</v>
+        <v>6.51592716935361</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>9.8137229783492</v>
+        <v>9.7996948294037</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-17.7776239810667</v>
+        <v>-17.2460860624043</v>
       </c>
     </row>
     <row r="10">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>10.8681008731477</v>
+        <v>10.854951617605</v>
       </c>
     </row>
     <row r="12">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>3.5495779245367</v>
+        <v>3.54977496791397</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>7.68171655228531</v>
+        <v>7.66786626768387</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-17.745015950954</v>
+        <v>-17.2032281436445</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>9.46217527253487</v>
+        <v>9.44859009620385</v>
       </c>
     </row>
     <row r="21">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>3.89145121601359</v>
+        <v>3.89150702250278</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>6.43673469759623</v>
+        <v>6.42315095887552</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-17.1660755758833</v>
+        <v>-16.5962557107887</v>
       </c>
     </row>
     <row r="28">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>8.02063358724308</v>
+        <v>8.00710834366113</v>
       </c>
     </row>
     <row r="30">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>4.41338112995573</v>
+        <v>4.41660808346662</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>6.73885700652149</v>
+        <v>6.72533375767987</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-17.3803091878497</v>
+        <v>-16.7694961025639</v>
       </c>
     </row>
     <row r="37">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>6.88961932629668</v>
+        <v>6.8769316844808</v>
       </c>
     </row>
     <row r="39">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>4.03481156850788</v>
+        <v>4.03794741636213</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>8.28005968637422</v>
+        <v>8.26661438753813</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-17.39241376148</v>
+        <v>-16.8014733783884</v>
       </c>
     </row>
     <row r="46">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>5.82984130110305</v>
+        <v>5.81772803051437</v>
       </c>
     </row>
     <row r="48">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>4.31606778553052</v>
+        <v>4.31919239696954</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>10.2704205162298</v>
+        <v>10.2570781297166</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-17.3940670885877</v>
+        <v>-16.8352295644414</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>5.50735774990411</v>
+        <v>5.49540622113006</v>
       </c>
     </row>
     <row r="57">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>4.22942266927127</v>
+        <v>4.2327515729335</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>10.1276920747251</v>
+        <v>10.1144551936469</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-16.6705578861752</v>
+        <v>-16.1085349155384</v>
       </c>
     </row>
     <row r="64">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>5.53663779099421</v>
+        <v>5.52462017021499</v>
       </c>
     </row>
     <row r="66">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>4.29366212636394</v>
+        <v>4.29418552388882</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>9.37525634000657</v>
+        <v>9.36215860010999</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-16.7868879880552</v>
+        <v>-16.2312538258499</v>
       </c>
     </row>
     <row r="73">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>5.03354395463997</v>
+        <v>5.02169902561905</v>
       </c>
     </row>
     <row r="75">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>5.45874496474294</v>
+        <v>5.45939022351649</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>7.00479412891791</v>
+        <v>6.99182370455209</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-16.4264077857292</v>
+        <v>-15.970712535307</v>
       </c>
     </row>
     <row r="82">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>5.33478720223558</v>
+        <v>5.32310118245093</v>
       </c>
     </row>
     <row r="84">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>5.62140273819541</v>
+        <v>5.62835937302028</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>6.19802559109502</v>
+        <v>6.18412002583603</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-16.213615898165</v>
+        <v>-15.7724993351829</v>
       </c>
     </row>
     <row r="91">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>5.06396525309599</v>
+        <v>5.0517184625261</v>
       </c>
     </row>
     <row r="93">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>5.46168986132564</v>
+        <v>5.4623159464612</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>7.17218442457863</v>
+        <v>7.155307511185</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-17.3419534011137</v>
+        <v>-16.7463229580712</v>
       </c>
     </row>
     <row r="100">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>4.8326450652049</v>
+        <v>4.82174186465546</v>
       </c>
     </row>
     <row r="102">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>5.56953655916364</v>
+        <v>5.57027118738878</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>7.12607875786848</v>
+        <v>7.11120099991824</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-14.6053128440138</v>
+        <v>-14.0059842626193</v>
       </c>
     </row>
     <row r="109">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>4.99148201412771</v>
+        <v>4.98523849068095</v>
       </c>
     </row>
     <row r="111">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>7.08770756187191</v>
+        <v>7.09259014394191</v>
       </c>
     </row>
     <row r="114">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>5.84460797237385</v>
+        <v>5.84542146811221</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>6.35476314578959</v>
+        <v>6.34041788406599</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-14.8587930555004</v>
+        <v>-14.2543913945219</v>
       </c>
     </row>
     <row r="118">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>4.89487488270376</v>
+        <v>4.88502021241818</v>
       </c>
     </row>
     <row r="120">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>8.12542643799774</v>
+        <v>8.12720760687774</v>
       </c>
     </row>
     <row r="123">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>6.4433294303902</v>
+        <v>6.4444284687687</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>7.00153349030652</v>
+        <v>6.98823781182954</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-14.4179415525431</v>
+        <v>-13.9161623914895</v>
       </c>
     </row>
     <row r="127">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>5.34231025749576</v>
+        <v>5.33310705122085</v>
       </c>
     </row>
     <row r="129">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>1.43472724009403</v>
+        <v>1.43472723169173</v>
       </c>
     </row>
     <row r="131">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>6.98764690779058</v>
+        <v>6.98840950849408</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>7.05678785741771</v>
+        <v>7.05118553468928</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-15.0953516052977</v>
+        <v>-14.573988732889</v>
       </c>
     </row>
     <row r="136">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>4.96427316953806</v>
+        <v>4.95551758535854</v>
       </c>
     </row>
     <row r="138">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>1.45934565264394</v>
+        <v>1.45934563583934</v>
       </c>
     </row>
     <row r="140">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>7.81619559444435</v>
+        <v>7.81719467307928</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>7.50950898372374</v>
+        <v>7.5041555176261</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-16.2945867710447</v>
+        <v>-15.6069227895337</v>
       </c>
     </row>
     <row r="145">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>4.89020927387478</v>
+        <v>4.88207198422113</v>
       </c>
     </row>
     <row r="147">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>1.32159464461672</v>
+        <v>1.32159508153632</v>
       </c>
     </row>
     <row r="149">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>8.27664431032004</v>
+        <v>8.27758188582595</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>7.32518685173718</v>
+        <v>7.31884650251624</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-13.0201424613549</v>
+        <v>-12.5510775782736</v>
       </c>
     </row>
     <row r="154">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>4.66047908222288</v>
+        <v>4.65289263005354</v>
       </c>
     </row>
     <row r="156">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>1.46459588666119</v>
+        <v>1.46459605470719</v>
       </c>
     </row>
     <row r="158">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>8.05773456751125</v>
+        <v>8.05849925343528</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>7.77521049058977</v>
+        <v>7.77017384147302</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-13.9148027577805</v>
+        <v>-13.3910607806124</v>
       </c>
     </row>
     <row r="163">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>4.91763076947199</v>
+        <v>4.91060100412873</v>
       </c>
     </row>
     <row r="165">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>1.48436042028685</v>
+        <v>1.48436047910295</v>
       </c>
     </row>
     <row r="167">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>8.55181121057799</v>
+        <v>8.55270594762027</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>6.85438233322978</v>
+        <v>6.8464252236994</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-12.3300721714541</v>
+        <v>-11.8916285122169</v>
       </c>
     </row>
     <row r="172">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>4.72001203874601</v>
+        <v>4.71347455160712</v>
       </c>
     </row>
     <row r="174">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>1.63330349937671</v>
+        <v>1.63330355819281</v>
       </c>
     </row>
     <row r="176">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>8.19478185462528</v>
+        <v>8.19560298976556</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>3.82987831607415</v>
+        <v>3.81837029610179</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-12.4723868180705</v>
+        <v>-12.0683685421241</v>
       </c>
     </row>
     <row r="181">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>5.17266198806047</v>
+        <v>5.16652007185251</v>
       </c>
     </row>
     <row r="183">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>1.74837442882103</v>
+        <v>1.74837480692453</v>
       </c>
     </row>
     <row r="185">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>7.98355889907064</v>
+        <v>7.98436020649665</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>4.0878546902745</v>
+        <v>4.07681516763024</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-11.937072575576</v>
+        <v>-11.5083493821966</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>3.73231672882711</v>
+        <v>3.73659668450175</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>4.90532109629462</v>
+        <v>4.89977582068596</v>
       </c>
     </row>
     <row r="192">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>2.02989287919903</v>
+        <v>2.02989327410713</v>
       </c>
     </row>
     <row r="194">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>8.15300950009414</v>
+        <v>8.15380444244821</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>4.63153604654401</v>
+        <v>4.61991283536795</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-8.64727624366793</v>
+        <v>-8.24868637613686</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>3.73493857919792</v>
+        <v>3.73925755386601</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>5.00114346390839</v>
+        <v>4.99606775979214</v>
       </c>
     </row>
     <row r="201">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>1.84076924527345</v>
+        <v>1.84076942172175</v>
       </c>
     </row>
     <row r="203">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>8.50667643399672</v>
+        <v>8.50750914626013</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>4.35125013738041</v>
+        <v>4.33848378897232</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-8.20418352605254</v>
+        <v>-7.80873659635745</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>3.66628304164933</v>
+        <v>3.67053036015471</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>5.42166020781475</v>
+        <v>5.41709811212487</v>
       </c>
     </row>
     <row r="210">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>1.68911521303167</v>
+        <v>1.68911564154897</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>2.63160022706511</v>
+        <v>2.63167266296011</v>
       </c>
     </row>
     <row r="213">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>7.49016800643225</v>
+        <v>7.43281381648971</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>4.2370003561546</v>
+        <v>4.22518651976786</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-7.19233597792676</v>
+        <v>-6.81814874452569</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>3.74160439276191</v>
+        <v>3.74644578241076</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>5.87239481934278</v>
+        <v>5.86764611950011</v>
       </c>
     </row>
     <row r="219">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>1.6848216722647</v>
+        <v>1.6848222016096</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>2.58108456084871</v>
+        <v>2.58117904871871</v>
       </c>
     </row>
     <row r="222">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>8.41713460009851</v>
+        <v>8.4179220599939</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>4.52865897830369</v>
+        <v>4.51870386141139</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-8.45511019422831</v>
+        <v>-8.0865248863687</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>3.62434884054534</v>
+        <v>3.62905389713621</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>5.90551853371616</v>
+        <v>5.90171689274143</v>
       </c>
     </row>
     <row r="228">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>2.04091171317309</v>
+        <v>2.04091233494329</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>2.85702070535459</v>
+        <v>2.85709909235459</v>
       </c>
     </row>
     <row r="231">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>9.19936586081898</v>
+        <v>9.20021635852898</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>5.16239112402346</v>
+        <v>5.13226469640237</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-8.00407857029586</v>
+        <v>-7.64297486065461</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>3.55220516879258</v>
+        <v>3.55803553744843</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>6.20105608634168</v>
+        <v>6.21196689798473</v>
       </c>
     </row>
     <row r="237">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>2.14373622562605</v>
+        <v>2.14373691461465</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>2.90670250937596</v>
+        <v>2.90684576837596</v>
       </c>
     </row>
     <row r="240">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>9.30099922002955</v>
+        <v>9.30187188011053</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>5.36649752620489</v>
+        <v>5.3388361700057</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-9.79443898756704</v>
+        <v>-9.44798780909658</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>3.48878730307116</v>
+        <v>3.49466602700534</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>6.03010807222557</v>
+        <v>6.02651337721547</v>
       </c>
     </row>
     <row r="246">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>2.31703069364724</v>
+        <v>2.31703156748644</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>3.59859909706084</v>
+        <v>3.59872664654019</v>
       </c>
     </row>
     <row r="249">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>9.43930901126402</v>
+        <v>9.44019294061645</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>5.24590019561088</v>
+        <v>5.21884653486106</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-9.78090366230701</v>
+        <v>-9.42697079571081</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>3.25210486222392</v>
+        <v>3.25830073772209</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>5.88338962650817</v>
+        <v>5.8796931202904</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>1.89523648819503</v>
+        <v>1.89569379249051</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>1.98540998129271</v>
+        <v>1.98541111560321</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>4.2734548050069</v>
+        <v>4.27356394996648</v>
       </c>
     </row>
     <row r="258">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>9.6528026944242</v>
+        <v>9.65324069447908</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>4.92121198141992</v>
+        <v>4.89005787818137</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-9.87197683793688</v>
+        <v>-9.507499152142</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>3.10461707035612</v>
+        <v>3.11221389418105</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>6.0847821330613</v>
+        <v>6.08145467423551</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>1.81747772667892</v>
+        <v>1.81790838104094</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>2.00669846388356</v>
+        <v>2.00670007712516</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>4.1096123797663</v>
+        <v>4.10970349029252</v>
       </c>
     </row>
     <row r="267">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>9.81061461473836</v>
+        <v>9.81113242016481</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>4.5918674435258</v>
+        <v>4.56187515646604</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-9.58594367275671</v>
+        <v>-9.22713670841989</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>2.97243474237225</v>
+        <v>2.98094037589234</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>5.9217079324389</v>
+        <v>5.91802363893764</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>1.81535873209835</v>
+        <v>1.81547890572781</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>1.73468906544324</v>
+        <v>1.73469155252404</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>4.01575962251223</v>
+        <v>4.01585171639144</v>
       </c>
     </row>
     <row r="276">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>9.22615513953379</v>
+        <v>9.22688202914053</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>4.32103565533717</v>
+        <v>4.28066830701863</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-9.6054752058084</v>
+        <v>-9.26905857889049</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>3.01168367447892</v>
+        <v>3.01646704668182</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>6.07680567306671</v>
+        <v>6.07411917883125</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>2.09873179383234</v>
+        <v>2.10449670665316</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>1.75012003962343</v>
+        <v>1.75012344255493</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>4.61994464168142</v>
+        <v>4.62024011092946</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>22.108664893522</v>
+        <v>22.1138916216789</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>9.9257007851595</v>
+        <v>9.92670326274962</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>4.58243270883599</v>
+        <v>4.56220004526993</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-9.57892195456396</v>
+        <v>-9.20169574897976</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>2.86825589569718</v>
+        <v>2.88170279007116</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>5.94321842032415</v>
+        <v>5.94004378351572</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>1.64527335198534</v>
+        <v>1.64536802078159</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>2.12860742639235</v>
+        <v>2.12864885451823</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>4.35957007563419</v>
+        <v>4.36646068941384</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>27.0207454091519</v>
+        <v>27.0227298814902</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>9.94012549388587</v>
+        <v>9.94247534100101</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>4.57491133681778</v>
+        <v>4.55475140157078</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-9.54003489403198</v>
+        <v>-9.15392516520182</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>2.80839931195662</v>
+        <v>2.79568815125965</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>5.9416180154564</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1.4117140662425</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1.68723397596626</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>3.82813239704072</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>15.7675797090852</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>10.1588014749372</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>3.85565418336457</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-8.60107249457582</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2.71419098089029</v>
       </c>
     </row>
   </sheetData>
